--- a/Product_list.xlsx
+++ b/Product_list.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -549,6 +549,21 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Napa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0"/>

--- a/Product_list.xlsx
+++ b/Product_list.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -564,6 +564,21 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Azicin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0"/>
